--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TABLEAU" r:id="rId3" sheetId="1"/>
-    <sheet name="ARTIST" r:id="rId4" sheetId="2"/>
+    <sheet name="ARTIST" r:id="rId3" sheetId="1"/>
+    <sheet name="TABLEAU" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -21,76 +21,34 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Prix</t>
-  </si>
-  <si>
-    <t>est Vendu</t>
-  </si>
-  <si>
-    <t>Date Creation</t>
-  </si>
-  <si>
-    <t>Artiste</t>
-  </si>
-  <si>
-    <t>Calvi Beach</t>
-  </si>
-  <si>
-    <t>Sumptuous and colourful beach scene advertising the Corsican resort of Calvi, showing a 1930s lady in her bathing suit against beach and town. Original poster designed by Roger Broders.</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>388.0 DH</t>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Date Naissance</t>
+  </si>
+  <si>
+    <t>Pseudo Nom</t>
+  </si>
+  <si>
+    <t>est Mort</t>
+  </si>
+  <si>
+    <t>Pays Origine</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Haring</t>
+  </si>
+  <si>
+    <t>K. Haring</t>
   </si>
   <si>
     <t>oui</t>
-  </si>
-  <si>
-    <t>Homo Decorans Louisi</t>
-  </si>
-  <si>
-    <t>This poster is reproduced from the original design by Keith Haring, created in conjunction with an exhibition at Louisiana Museum of Art, Denmark, 1985. The poster features a detail from a twenty metr</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>196.0 DH</t>
-  </si>
-  <si>
-    <t>Prenom</t>
-  </si>
-  <si>
-    <t>Date Naissance</t>
-  </si>
-  <si>
-    <t>Pseudo Nom</t>
-  </si>
-  <si>
-    <t>est Mort</t>
-  </si>
-  <si>
-    <t>Pays Origine</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t>Haring</t>
-  </si>
-  <si>
-    <t>K. Haring</t>
   </si>
   <si>
     <t>USA</t>
@@ -115,10 +73,49 @@
     <t>34, Generl Street, Manchester UK</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>non</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>est Vendu</t>
+  </si>
+  <si>
+    <t>Date Creation</t>
+  </si>
+  <si>
+    <t>Artiste</t>
+  </si>
+  <si>
+    <t>Calvi Beach</t>
+  </si>
+  <si>
+    <t>Sumptuous and colourful beach scene advertising the Corsican resort of Calvi, showing a 1930s lady in her bathing suit against beach and town. Original poster designed by Roger Broders.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>388.0 DH</t>
+  </si>
+  <si>
+    <t>Homo Decorans Louisi</t>
+  </si>
+  <si>
+    <t>This poster is reproduced from the original design by Keith Haring, created in conjunction with an exhibition at Louisiana Museum of Art, Denmark, 1985. The poster features a detail from a twenty metr</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>196.0 DH</t>
   </si>
 </sst>
 </file>
@@ -163,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,7 +194,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -205,43 +202,73 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="n">
+        <v>21206.0</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="n">
-        <v>23453.0</v>
-      </c>
-      <c r="H2"/>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8736.0</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>31094.0</v>
-      </c>
-      <c r="H3"/>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45048.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -250,7 +277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,127 +291,71 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21206.0</v>
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23453.0</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8736.0</v>
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45047.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45063.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31094.0</v>
+      </c>
+      <c r="H3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
